--- a/CountryData/Guinea/Guinea_Workbook.xlsx
+++ b/CountryData/Guinea/Guinea_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Guinea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32663F2-2586-4E88-8D73-41008E5D3D56}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guinea_Popup" sheetId="1" r:id="rId1"/>
@@ -97,169 +97,7 @@
     <t>Analysis and Case Studies:</t>
   </si>
   <si>
-    <r>
-      <t>Maconachie and</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wilhelm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(2021) – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Exploring Local Content in Guinea's Bauxite Sector: Obstacles, Opportunities and Future Trajectories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Paywall)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Cindy Wilhelm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF241C15"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>An Actor-oriented Assessment of Guinea's Local Content Policies (LCP): Opportunities and Obstacles for the Government, Mining Companies and Civil Society</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Relevant Initiatives: </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lado and Toroskai (2019) – </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In a Natural Resource Governance Institute Blogspot, Kaisa Toroskai and Hervé Lado Describe how EITI Data Can Support Guinea’s Efforts to Promote Local Mining Subcontractors</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KPMG Global Mining Institute (2014) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Guinea Country Mining Guide</t>
-    </r>
   </si>
   <si>
     <r>
@@ -284,55 +122,64 @@
     </r>
   </si>
   <si>
+    <t>Simandou Iron Ore Project with Rio Tinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFC Acquires Stake in Guinean Iron Ore Project </t>
+  </si>
+  <si>
+    <t>—2019 Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">—2013 Report </t>
+  </si>
+  <si>
+    <t>—2006 Report</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>—</t>
+      <t xml:space="preserve">Lado and Toroskai (2019) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2019 Report</t>
+      <t>In a Natural Resource Governance Institute Blogspot, Kaisa Toroskai and Hervé Lado Describe how EITI Data Can Support Guinea’s Efforts to Promote Local Mining Subcontractors</t>
     </r>
-  </si>
-  <si>
-    <t>Simandou Iron Ore Project with Rio Tinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFC Acquires Stake in Guinean Iron Ore Project </t>
   </si>
   <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>—</t>
+      <t xml:space="preserve">KPMG Global Mining Institute (2014) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">2013 Report </t>
+      <t>Guinea Country Mining Guide</t>
     </r>
   </si>
   <si>
@@ -340,30 +187,73 @@
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>—</t>
+      <t xml:space="preserve">Maconachie and Wilhelm (2021) – </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2006 Report</t>
+      <t xml:space="preserve">Exploring Local Content in Guinea's Bauxite Sector: Obstacles, Opportunities and Future Trajectories </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cindy Wilhelm (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An Actor-oriented Assessment of Guinea's Local Content Policies (LCP): Opportunities and Obstacles for the Government, Mining Companies and Civil Society </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Paywall)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -494,13 +384,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -554,14 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF241C15"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -616,9 +491,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1013,71 +888,68 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1436,11 +1308,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J35"/>
+      <selection sqref="A1:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,19 +1322,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1470,7 +1342,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1478,7 +1350,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1486,7 +1358,7 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>178</v>
       </c>
     </row>
@@ -1494,7 +1366,7 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1502,18 +1374,18 @@
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1521,40 +1393,40 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1573,8 +1445,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
+      <c r="A23" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1583,8 +1455,8 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>24</v>
+      <c r="A24" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1599,8 +1471,8 @@
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
+      <c r="A25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1613,79 +1485,83 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="13"/>
+      <c r="A26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=GN"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=GN"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=GN"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/guinea"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/85/export-basket"/>
-    <hyperlink ref="A13" r:id="rId7" display="https://mines.gov.gn/assets/uploads/2016/02/Republique-de-Guinee-Code-minier-FR-EN-1.pdf"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://mines.gov.gn/docs/PDF/decrets/Decret-285-FODEL.pdf"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://mines.gov.gn/assets/uploads/2019/06/Arrete-conjoint-FODEL-Novembre-2018.pdf"/>
-    <hyperlink ref="A16" r:id="rId10" display="http://www.droit-afrique.com/upload/doc/guinee/Guinee-Code-2014-petrolier.pdf"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://www.invest.gov.gn/document/lettre-de-politique-de-promotion-du-contenu-local-dans-le-secteur-minier"/>
-    <hyperlink ref="A18" r:id="rId12" display="https://www.invest.gov.gn/document/lettre-de-politique-nationale-du-contenu-local"/>
-    <hyperlink ref="A24" r:id="rId13" display="https://resourcegovernance.org/blog/eiti-data-guinea-mining-subcontractors-local-content"/>
-    <hyperlink ref="A26" r:id="rId14" display="https://assets.kpmg/content/dam/kpmg/pdf/2014/07/guinea-mining-guide.pdf"/>
-    <hyperlink ref="A29" r:id="rId15" display="http://sous-traitancegn.org/"/>
-    <hyperlink ref="A30" r:id="rId16" display="https://www.ifc.org/wps/wcm/connect/news_ext_content/ifc_external_corporate_site/news+and+events/news/guinea-matching-entrepreneurs-with-larger-marketplace"/>
-    <hyperlink ref="A32" r:id="rId17" display="https://www.ifc.org/wps/wcm/connect/308ff2aa-ff86-499c-bbbe-0c7d4fb3c6e1/sba-proj-guinea-riotinto.pdf?MOD=AJPERES&amp;CVID=jZEK3cj"/>
-    <hyperlink ref="A34" r:id="rId18" display="https://pressroom.ifc.org/all/pages/PressDetail.aspx?ID=22703"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=GN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=GN" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=GN" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/guinea" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/85/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A24" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A29" r:id="rId15" display="http://sous-traitancegn.org/" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A30" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A32" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A23" r:id="rId19" xr:uid="{B5D42AF2-0854-4152-9A26-B682BC7B3412}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{7260161A-87C2-4FEA-B209-682AADC263E1}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <webPublishItems count="1">
-    <webPublishItem id="9439" divId="Guinea_Workbook_9439" sourceType="range" sourceRef="A1:J35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Guinea\Guinea_Popup.htm" autoRepublish="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId21"/>
+  <webPublishItems count="2">
+    <webPublishItem id="4689" divId="Guinea_Workbook_4689" sourceType="range" sourceRef="A1:J35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Guinea\Guinea_Popup.htm"/>
+    <webPublishItem id="14766" divId="Guinea_Workbook_14766" sourceType="range" sourceRef="A1:K35" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Guinea\Guinea_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Guinea/Guinea_Workbook.xlsx
+++ b/CountryData/Guinea/Guinea_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Guinea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A32663F2-2586-4E88-8D73-41008E5D3D56}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C68BC1-AA67-448A-91D9-847E6CFA3C02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guinea_Popup" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -951,6 +951,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1312,7 +1315,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,16 +1324,16 @@
     <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1370,60 +1373,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15"/>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15"/>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="15"/>

--- a/CountryData/Guinea/Guinea_Workbook.xlsx
+++ b/CountryData/Guinea/Guinea_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Guinea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C68BC1-AA67-448A-91D9-847E6CFA3C02}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:40009_{C4BA6F2B-EB75-490F-9EFF-5A4C0EB1D1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F88F531C-F4C7-40D5-981C-8AFE16768D0C}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guinea_Popup" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -491,6 +491,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -891,7 +898,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -949,10 +956,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1315,7 +1328,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C35" sqref="A34:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,37 +1413,37 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="15"/>
@@ -1511,9 +1524,10 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="22" t="s">
         <v>25</v>
       </c>
+      <c r="B30" s="23"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1521,24 +1535,29 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+    <row r="34" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
     </row>
   </sheetData>
